--- a/FondosComparaciones.xlsx
+++ b/FondosComparaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancolombia-my.sharepoint.com/personal/juliavar_bancolombia_com_co/Documents/Workspace/PruebaStreamLit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancolombia-my.sharepoint.com/personal/juliavar_bancolombia_com_co/Documents/Workspace/FICsAppStreamLit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="6_{28E07C51-B9B0-489E-9EB6-9D06B3FB2312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BBBF681-65FB-4D01-8AAA-EEDC4475CB10}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="6_{28E07C51-B9B0-489E-9EB6-9D06B3FB2312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{849A9D54-2996-4ADB-8A45-84C7D266001D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TiposParticipacion" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="BDTotalFondos" sheetId="3" r:id="rId3"/>
     <sheet name="NoEnBDMarketShare" sheetId="4" r:id="rId4"/>
     <sheet name="SIF+FPVDesde2018" sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja2" sheetId="6" r:id="rId6"/>
+    <sheet name="ComparacionModelos" sheetId="6" r:id="rId6"/>
+    <sheet name="NoEnBDIndustriaLocal" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SIF+FPVDesde2018'!$J$2:$J$427</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="1544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6617" uniqueCount="1549">
   <si>
     <t>ALIANZA S.A. FONDO CASH CONSERVADOR ALIANZA 1525517</t>
   </si>
@@ -4674,6 +4675,21 @@
   </si>
   <si>
     <t>Fondos Modelo TodosLosFondos</t>
+  </si>
+  <si>
+    <t>No tiene nombre corto ni comision al no estar en BDIndustriaLocal</t>
+  </si>
+  <si>
+    <t>Nombre Corto</t>
+  </si>
+  <si>
+    <t>Comision</t>
+  </si>
+  <si>
+    <t>Por Participaciones</t>
+  </si>
+  <si>
+    <t>Por Fondos</t>
   </si>
 </sst>
 </file>
@@ -4734,34 +4750,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -14697,7 +14699,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21903,7 +21905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FB1553-3048-4C15-AF4B-6A5C94BB00D8}">
   <dimension ref="A1:K473"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -24735,4 +24737,6985 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E1D682-E34A-4E64-B782-D9F9E9BA97B8}">
+  <dimension ref="A1:M374"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I240" sqref="I5:J240"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1548</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" t="s">
+        <v>304</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1417</v>
+      </c>
+      <c r="K6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" t="s">
+        <v>304</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="K7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" t="s">
+        <v>304</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1507</v>
+      </c>
+      <c r="K8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" t="s">
+        <v>304</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="K9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" t="s">
+        <v>304</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" t="s">
+        <v>304</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F13" t="s">
+        <v>304</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14" t="s">
+        <v>304</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" t="s">
+        <v>324</v>
+      </c>
+      <c r="F15" t="s">
+        <v>304</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" t="s">
+        <v>304</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" t="s">
+        <v>304</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F18" t="s">
+        <v>304</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1246</v>
+      </c>
+      <c r="K18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" t="s">
+        <v>348</v>
+      </c>
+      <c r="F19" t="s">
+        <v>304</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" t="s">
+        <v>349</v>
+      </c>
+      <c r="F20" t="s">
+        <v>304</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D21" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" t="s">
+        <v>304</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" t="s">
+        <v>351</v>
+      </c>
+      <c r="F22" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" t="s">
+        <v>352</v>
+      </c>
+      <c r="F23" t="s">
+        <v>304</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>353</v>
+      </c>
+      <c r="C24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" t="s">
+        <v>353</v>
+      </c>
+      <c r="F24" t="s">
+        <v>304</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>354</v>
+      </c>
+      <c r="C25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" t="s">
+        <v>354</v>
+      </c>
+      <c r="F25" t="s">
+        <v>304</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" t="s">
+        <v>355</v>
+      </c>
+      <c r="F26" t="s">
+        <v>304</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>356</v>
+      </c>
+      <c r="C27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D27" t="s">
+        <v>356</v>
+      </c>
+      <c r="F27" t="s">
+        <v>304</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1438</v>
+      </c>
+      <c r="K27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" t="s">
+        <v>357</v>
+      </c>
+      <c r="F28" t="s">
+        <v>304</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1439</v>
+      </c>
+      <c r="K28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>358</v>
+      </c>
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" t="s">
+        <v>358</v>
+      </c>
+      <c r="F29" t="s">
+        <v>304</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1440</v>
+      </c>
+      <c r="K29" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D30" t="s">
+        <v>359</v>
+      </c>
+      <c r="F30" t="s">
+        <v>304</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>360</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" t="s">
+        <v>360</v>
+      </c>
+      <c r="F31" t="s">
+        <v>304</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>380</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D32" t="s">
+        <v>380</v>
+      </c>
+      <c r="F32" t="s">
+        <v>304</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>381</v>
+      </c>
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" t="s">
+        <v>381</v>
+      </c>
+      <c r="F33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>382</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" t="s">
+        <v>382</v>
+      </c>
+      <c r="F34" t="s">
+        <v>304</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>383</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" t="s">
+        <v>383</v>
+      </c>
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1435</v>
+      </c>
+      <c r="K35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>384</v>
+      </c>
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" t="s">
+        <v>384</v>
+      </c>
+      <c r="F36" t="s">
+        <v>304</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>385</v>
+      </c>
+      <c r="C37" t="s">
+        <v>304</v>
+      </c>
+      <c r="D37" t="s">
+        <v>385</v>
+      </c>
+      <c r="F37" t="s">
+        <v>304</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1258</v>
+      </c>
+      <c r="K37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>386</v>
+      </c>
+      <c r="C38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D38" t="s">
+        <v>386</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>387</v>
+      </c>
+      <c r="C39" t="s">
+        <v>304</v>
+      </c>
+      <c r="D39" t="s">
+        <v>387</v>
+      </c>
+      <c r="F39" t="s">
+        <v>304</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>388</v>
+      </c>
+      <c r="C40" t="s">
+        <v>304</v>
+      </c>
+      <c r="D40" t="s">
+        <v>388</v>
+      </c>
+      <c r="F40" t="s">
+        <v>304</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>389</v>
+      </c>
+      <c r="C41" t="s">
+        <v>304</v>
+      </c>
+      <c r="D41" t="s">
+        <v>389</v>
+      </c>
+      <c r="F41" t="s">
+        <v>304</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>395</v>
+      </c>
+      <c r="C42" t="s">
+        <v>304</v>
+      </c>
+      <c r="D42" t="s">
+        <v>395</v>
+      </c>
+      <c r="F42" t="s">
+        <v>304</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>396</v>
+      </c>
+      <c r="C43" t="s">
+        <v>304</v>
+      </c>
+      <c r="D43" t="s">
+        <v>396</v>
+      </c>
+      <c r="F43" t="s">
+        <v>304</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1447</v>
+      </c>
+      <c r="K43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>397</v>
+      </c>
+      <c r="C44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" t="s">
+        <v>397</v>
+      </c>
+      <c r="F44" t="s">
+        <v>304</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K44" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>398</v>
+      </c>
+      <c r="C45" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" t="s">
+        <v>398</v>
+      </c>
+      <c r="F45" t="s">
+        <v>304</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K45" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>399</v>
+      </c>
+      <c r="C46" t="s">
+        <v>304</v>
+      </c>
+      <c r="D46" t="s">
+        <v>399</v>
+      </c>
+      <c r="F46" t="s">
+        <v>304</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K46" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>400</v>
+      </c>
+      <c r="C47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" t="s">
+        <v>400</v>
+      </c>
+      <c r="F47" t="s">
+        <v>304</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K47" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>411</v>
+      </c>
+      <c r="C48" t="s">
+        <v>304</v>
+      </c>
+      <c r="D48" t="s">
+        <v>411</v>
+      </c>
+      <c r="F48" t="s">
+        <v>304</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1268</v>
+      </c>
+      <c r="K48" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>425</v>
+      </c>
+      <c r="C49" t="s">
+        <v>304</v>
+      </c>
+      <c r="D49" t="s">
+        <v>425</v>
+      </c>
+      <c r="F49" t="s">
+        <v>304</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K49" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>427</v>
+      </c>
+      <c r="C50" t="s">
+        <v>304</v>
+      </c>
+      <c r="D50" t="s">
+        <v>427</v>
+      </c>
+      <c r="F50" t="s">
+        <v>304</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K50" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>428</v>
+      </c>
+      <c r="C51" t="s">
+        <v>304</v>
+      </c>
+      <c r="D51" t="s">
+        <v>428</v>
+      </c>
+      <c r="F51" t="s">
+        <v>304</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K51" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>429</v>
+      </c>
+      <c r="C52" t="s">
+        <v>304</v>
+      </c>
+      <c r="D52" t="s">
+        <v>429</v>
+      </c>
+      <c r="F52" t="s">
+        <v>304</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>430</v>
+      </c>
+      <c r="C53" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" t="s">
+        <v>430</v>
+      </c>
+      <c r="F53" t="s">
+        <v>304</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>431</v>
+      </c>
+      <c r="C54" t="s">
+        <v>304</v>
+      </c>
+      <c r="D54" t="s">
+        <v>431</v>
+      </c>
+      <c r="F54" t="s">
+        <v>304</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K54" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>432</v>
+      </c>
+      <c r="C55" t="s">
+        <v>304</v>
+      </c>
+      <c r="D55" t="s">
+        <v>432</v>
+      </c>
+      <c r="F55" t="s">
+        <v>304</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K55" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>433</v>
+      </c>
+      <c r="C56" t="s">
+        <v>304</v>
+      </c>
+      <c r="D56" t="s">
+        <v>433</v>
+      </c>
+      <c r="F56" t="s">
+        <v>304</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K56" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C57" t="s">
+        <v>304</v>
+      </c>
+      <c r="D57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F57" t="s">
+        <v>304</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K57" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>435</v>
+      </c>
+      <c r="C58" t="s">
+        <v>304</v>
+      </c>
+      <c r="D58" t="s">
+        <v>435</v>
+      </c>
+      <c r="F58" t="s">
+        <v>304</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K58" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>436</v>
+      </c>
+      <c r="C59" t="s">
+        <v>304</v>
+      </c>
+      <c r="D59" t="s">
+        <v>436</v>
+      </c>
+      <c r="F59" t="s">
+        <v>304</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K59" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>437</v>
+      </c>
+      <c r="C60" t="s">
+        <v>304</v>
+      </c>
+      <c r="D60" t="s">
+        <v>437</v>
+      </c>
+      <c r="F60" t="s">
+        <v>304</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K60" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>438</v>
+      </c>
+      <c r="C61" t="s">
+        <v>304</v>
+      </c>
+      <c r="D61" t="s">
+        <v>438</v>
+      </c>
+      <c r="F61" t="s">
+        <v>304</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>439</v>
+      </c>
+      <c r="C62" t="s">
+        <v>304</v>
+      </c>
+      <c r="D62" t="s">
+        <v>439</v>
+      </c>
+      <c r="F62" t="s">
+        <v>304</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K62" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>440</v>
+      </c>
+      <c r="C63" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" t="s">
+        <v>440</v>
+      </c>
+      <c r="F63" t="s">
+        <v>304</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K63" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>441</v>
+      </c>
+      <c r="C64" t="s">
+        <v>304</v>
+      </c>
+      <c r="D64" t="s">
+        <v>441</v>
+      </c>
+      <c r="F64" t="s">
+        <v>304</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K64" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>442</v>
+      </c>
+      <c r="C65" t="s">
+        <v>304</v>
+      </c>
+      <c r="D65" t="s">
+        <v>442</v>
+      </c>
+      <c r="F65" t="s">
+        <v>304</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K65" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>443</v>
+      </c>
+      <c r="C66" t="s">
+        <v>304</v>
+      </c>
+      <c r="D66" t="s">
+        <v>443</v>
+      </c>
+      <c r="F66" t="s">
+        <v>304</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K66" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>444</v>
+      </c>
+      <c r="C67" t="s">
+        <v>304</v>
+      </c>
+      <c r="D67" t="s">
+        <v>444</v>
+      </c>
+      <c r="F67" t="s">
+        <v>304</v>
+      </c>
+      <c r="I67" t="s">
+        <v>958</v>
+      </c>
+      <c r="K67" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>445</v>
+      </c>
+      <c r="C68" t="s">
+        <v>304</v>
+      </c>
+      <c r="D68" t="s">
+        <v>445</v>
+      </c>
+      <c r="F68" t="s">
+        <v>304</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K68" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>446</v>
+      </c>
+      <c r="C69" t="s">
+        <v>304</v>
+      </c>
+      <c r="D69" t="s">
+        <v>446</v>
+      </c>
+      <c r="F69" t="s">
+        <v>304</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K69" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>447</v>
+      </c>
+      <c r="C70" t="s">
+        <v>304</v>
+      </c>
+      <c r="D70" t="s">
+        <v>447</v>
+      </c>
+      <c r="F70" t="s">
+        <v>304</v>
+      </c>
+      <c r="I70" t="s">
+        <v>964</v>
+      </c>
+      <c r="K70" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>448</v>
+      </c>
+      <c r="C71" t="s">
+        <v>304</v>
+      </c>
+      <c r="D71" t="s">
+        <v>448</v>
+      </c>
+      <c r="F71" t="s">
+        <v>304</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K71" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>449</v>
+      </c>
+      <c r="C72" t="s">
+        <v>304</v>
+      </c>
+      <c r="D72" t="s">
+        <v>449</v>
+      </c>
+      <c r="F72" t="s">
+        <v>304</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K72" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>450</v>
+      </c>
+      <c r="C73" t="s">
+        <v>304</v>
+      </c>
+      <c r="D73" t="s">
+        <v>450</v>
+      </c>
+      <c r="F73" t="s">
+        <v>304</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1512</v>
+      </c>
+      <c r="K73" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>451</v>
+      </c>
+      <c r="C74" t="s">
+        <v>304</v>
+      </c>
+      <c r="D74" t="s">
+        <v>451</v>
+      </c>
+      <c r="F74" t="s">
+        <v>304</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K74" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>452</v>
+      </c>
+      <c r="C75" t="s">
+        <v>304</v>
+      </c>
+      <c r="D75" t="s">
+        <v>452</v>
+      </c>
+      <c r="F75" t="s">
+        <v>304</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K75" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>453</v>
+      </c>
+      <c r="C76" t="s">
+        <v>304</v>
+      </c>
+      <c r="D76" t="s">
+        <v>453</v>
+      </c>
+      <c r="F76" t="s">
+        <v>304</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K76" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>454</v>
+      </c>
+      <c r="C77" t="s">
+        <v>304</v>
+      </c>
+      <c r="D77" t="s">
+        <v>454</v>
+      </c>
+      <c r="F77" t="s">
+        <v>304</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K77" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>455</v>
+      </c>
+      <c r="C78" t="s">
+        <v>304</v>
+      </c>
+      <c r="D78" t="s">
+        <v>455</v>
+      </c>
+      <c r="F78" t="s">
+        <v>304</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K78" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>456</v>
+      </c>
+      <c r="C79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D79" t="s">
+        <v>456</v>
+      </c>
+      <c r="F79" t="s">
+        <v>304</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K79" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>457</v>
+      </c>
+      <c r="C80" t="s">
+        <v>304</v>
+      </c>
+      <c r="D80" t="s">
+        <v>457</v>
+      </c>
+      <c r="F80" t="s">
+        <v>304</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K80" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>458</v>
+      </c>
+      <c r="C81" t="s">
+        <v>304</v>
+      </c>
+      <c r="D81" t="s">
+        <v>458</v>
+      </c>
+      <c r="F81" t="s">
+        <v>304</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K81" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>459</v>
+      </c>
+      <c r="C82" t="s">
+        <v>304</v>
+      </c>
+      <c r="D82" t="s">
+        <v>459</v>
+      </c>
+      <c r="F82" t="s">
+        <v>304</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K82" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>460</v>
+      </c>
+      <c r="C83" t="s">
+        <v>304</v>
+      </c>
+      <c r="D83" t="s">
+        <v>460</v>
+      </c>
+      <c r="F83" t="s">
+        <v>304</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K83" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>461</v>
+      </c>
+      <c r="C84" t="s">
+        <v>304</v>
+      </c>
+      <c r="D84" t="s">
+        <v>461</v>
+      </c>
+      <c r="F84" t="s">
+        <v>304</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K84" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>462</v>
+      </c>
+      <c r="C85" t="s">
+        <v>304</v>
+      </c>
+      <c r="D85" t="s">
+        <v>462</v>
+      </c>
+      <c r="F85" t="s">
+        <v>304</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K85" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>463</v>
+      </c>
+      <c r="C86" t="s">
+        <v>304</v>
+      </c>
+      <c r="D86" t="s">
+        <v>463</v>
+      </c>
+      <c r="F86" t="s">
+        <v>304</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K86" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>464</v>
+      </c>
+      <c r="C87" t="s">
+        <v>304</v>
+      </c>
+      <c r="D87" t="s">
+        <v>464</v>
+      </c>
+      <c r="F87" t="s">
+        <v>304</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K87" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>465</v>
+      </c>
+      <c r="C88" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" t="s">
+        <v>465</v>
+      </c>
+      <c r="F88" t="s">
+        <v>304</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K88" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>466</v>
+      </c>
+      <c r="C89" t="s">
+        <v>304</v>
+      </c>
+      <c r="D89" t="s">
+        <v>466</v>
+      </c>
+      <c r="F89" t="s">
+        <v>304</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K89" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>467</v>
+      </c>
+      <c r="C90" t="s">
+        <v>304</v>
+      </c>
+      <c r="D90" t="s">
+        <v>467</v>
+      </c>
+      <c r="F90" t="s">
+        <v>304</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K90" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>468</v>
+      </c>
+      <c r="C91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D91" t="s">
+        <v>468</v>
+      </c>
+      <c r="F91" t="s">
+        <v>304</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K91" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>469</v>
+      </c>
+      <c r="C92" t="s">
+        <v>304</v>
+      </c>
+      <c r="D92" t="s">
+        <v>469</v>
+      </c>
+      <c r="F92" t="s">
+        <v>304</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K92" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>470</v>
+      </c>
+      <c r="C93" t="s">
+        <v>304</v>
+      </c>
+      <c r="D93" t="s">
+        <v>470</v>
+      </c>
+      <c r="F93" t="s">
+        <v>304</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K93" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>471</v>
+      </c>
+      <c r="C94" t="s">
+        <v>304</v>
+      </c>
+      <c r="D94" t="s">
+        <v>471</v>
+      </c>
+      <c r="F94" t="s">
+        <v>304</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K94" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>472</v>
+      </c>
+      <c r="C95" t="s">
+        <v>304</v>
+      </c>
+      <c r="D95" t="s">
+        <v>472</v>
+      </c>
+      <c r="F95" t="s">
+        <v>304</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K95" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>473</v>
+      </c>
+      <c r="C96" t="s">
+        <v>304</v>
+      </c>
+      <c r="D96" t="s">
+        <v>473</v>
+      </c>
+      <c r="F96" t="s">
+        <v>304</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K96" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>474</v>
+      </c>
+      <c r="C97" t="s">
+        <v>304</v>
+      </c>
+      <c r="D97" t="s">
+        <v>474</v>
+      </c>
+      <c r="F97" t="s">
+        <v>304</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1430</v>
+      </c>
+      <c r="K97" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>475</v>
+      </c>
+      <c r="C98" t="s">
+        <v>304</v>
+      </c>
+      <c r="D98" t="s">
+        <v>475</v>
+      </c>
+      <c r="F98" t="s">
+        <v>304</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K98" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>476</v>
+      </c>
+      <c r="C99" t="s">
+        <v>304</v>
+      </c>
+      <c r="D99" t="s">
+        <v>476</v>
+      </c>
+      <c r="F99" t="s">
+        <v>304</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K99" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>477</v>
+      </c>
+      <c r="C100" t="s">
+        <v>304</v>
+      </c>
+      <c r="D100" t="s">
+        <v>477</v>
+      </c>
+      <c r="F100" t="s">
+        <v>304</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1444</v>
+      </c>
+      <c r="K100" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>304</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" t="s">
+        <v>304</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K101" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" t="s">
+        <v>304</v>
+      </c>
+      <c r="D102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" t="s">
+        <v>304</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K102" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>526</v>
+      </c>
+      <c r="C103" t="s">
+        <v>304</v>
+      </c>
+      <c r="D103" t="s">
+        <v>526</v>
+      </c>
+      <c r="F103" t="s">
+        <v>304</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1515</v>
+      </c>
+      <c r="K103" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>527</v>
+      </c>
+      <c r="C104" t="s">
+        <v>304</v>
+      </c>
+      <c r="D104" t="s">
+        <v>527</v>
+      </c>
+      <c r="F104" t="s">
+        <v>304</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1316</v>
+      </c>
+      <c r="K104" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" t="s">
+        <v>304</v>
+      </c>
+      <c r="D105" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" t="s">
+        <v>304</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K105" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>541</v>
+      </c>
+      <c r="C106" t="s">
+        <v>304</v>
+      </c>
+      <c r="D106" t="s">
+        <v>541</v>
+      </c>
+      <c r="F106" t="s">
+        <v>304</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K106" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>542</v>
+      </c>
+      <c r="C107" t="s">
+        <v>304</v>
+      </c>
+      <c r="D107" t="s">
+        <v>542</v>
+      </c>
+      <c r="F107" t="s">
+        <v>304</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K107" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>543</v>
+      </c>
+      <c r="C108" t="s">
+        <v>304</v>
+      </c>
+      <c r="D108" t="s">
+        <v>543</v>
+      </c>
+      <c r="F108" t="s">
+        <v>304</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1516</v>
+      </c>
+      <c r="K108" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>544</v>
+      </c>
+      <c r="C109" t="s">
+        <v>304</v>
+      </c>
+      <c r="D109" t="s">
+        <v>544</v>
+      </c>
+      <c r="F109" t="s">
+        <v>304</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K109" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>545</v>
+      </c>
+      <c r="C110" t="s">
+        <v>304</v>
+      </c>
+      <c r="D110" t="s">
+        <v>545</v>
+      </c>
+      <c r="F110" t="s">
+        <v>304</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K110" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>554</v>
+      </c>
+      <c r="C111" t="s">
+        <v>304</v>
+      </c>
+      <c r="D111" t="s">
+        <v>554</v>
+      </c>
+      <c r="F111" t="s">
+        <v>304</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1320</v>
+      </c>
+      <c r="K111" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>555</v>
+      </c>
+      <c r="C112" t="s">
+        <v>304</v>
+      </c>
+      <c r="D112" t="s">
+        <v>555</v>
+      </c>
+      <c r="F112" t="s">
+        <v>304</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K112" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>556</v>
+      </c>
+      <c r="C113" t="s">
+        <v>304</v>
+      </c>
+      <c r="D113" t="s">
+        <v>556</v>
+      </c>
+      <c r="F113" t="s">
+        <v>304</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K113" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>557</v>
+      </c>
+      <c r="C114" t="s">
+        <v>304</v>
+      </c>
+      <c r="D114" t="s">
+        <v>557</v>
+      </c>
+      <c r="F114" t="s">
+        <v>304</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1322</v>
+      </c>
+      <c r="K114" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>558</v>
+      </c>
+      <c r="C115" t="s">
+        <v>304</v>
+      </c>
+      <c r="D115" t="s">
+        <v>558</v>
+      </c>
+      <c r="F115" t="s">
+        <v>304</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1519</v>
+      </c>
+      <c r="K115" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>559</v>
+      </c>
+      <c r="C116" t="s">
+        <v>304</v>
+      </c>
+      <c r="D116" t="s">
+        <v>559</v>
+      </c>
+      <c r="F116" t="s">
+        <v>304</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K116" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>560</v>
+      </c>
+      <c r="C117" t="s">
+        <v>304</v>
+      </c>
+      <c r="D117" t="s">
+        <v>560</v>
+      </c>
+      <c r="F117" t="s">
+        <v>304</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K117" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>561</v>
+      </c>
+      <c r="C118" t="s">
+        <v>304</v>
+      </c>
+      <c r="D118" t="s">
+        <v>561</v>
+      </c>
+      <c r="F118" t="s">
+        <v>304</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1328</v>
+      </c>
+      <c r="K118" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>562</v>
+      </c>
+      <c r="C119" t="s">
+        <v>304</v>
+      </c>
+      <c r="D119" t="s">
+        <v>562</v>
+      </c>
+      <c r="F119" t="s">
+        <v>304</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K119" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>563</v>
+      </c>
+      <c r="C120" t="s">
+        <v>304</v>
+      </c>
+      <c r="D120" t="s">
+        <v>563</v>
+      </c>
+      <c r="F120" t="s">
+        <v>304</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K120" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>564</v>
+      </c>
+      <c r="C121" t="s">
+        <v>304</v>
+      </c>
+      <c r="D121" t="s">
+        <v>564</v>
+      </c>
+      <c r="F121" t="s">
+        <v>304</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K121" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>565</v>
+      </c>
+      <c r="C122" t="s">
+        <v>304</v>
+      </c>
+      <c r="D122" t="s">
+        <v>565</v>
+      </c>
+      <c r="F122" t="s">
+        <v>304</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1331</v>
+      </c>
+      <c r="K122" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>566</v>
+      </c>
+      <c r="C123" t="s">
+        <v>304</v>
+      </c>
+      <c r="D123" t="s">
+        <v>566</v>
+      </c>
+      <c r="F123" t="s">
+        <v>304</v>
+      </c>
+      <c r="I123" t="s">
+        <v>973</v>
+      </c>
+      <c r="K123" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>567</v>
+      </c>
+      <c r="C124" t="s">
+        <v>304</v>
+      </c>
+      <c r="D124" t="s">
+        <v>567</v>
+      </c>
+      <c r="F124" t="s">
+        <v>304</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K124" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>568</v>
+      </c>
+      <c r="C125" t="s">
+        <v>304</v>
+      </c>
+      <c r="D125" t="s">
+        <v>568</v>
+      </c>
+      <c r="F125" t="s">
+        <v>304</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K125" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>569</v>
+      </c>
+      <c r="C126" t="s">
+        <v>304</v>
+      </c>
+      <c r="D126" t="s">
+        <v>569</v>
+      </c>
+      <c r="F126" t="s">
+        <v>304</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K126" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>570</v>
+      </c>
+      <c r="C127" t="s">
+        <v>304</v>
+      </c>
+      <c r="D127" t="s">
+        <v>570</v>
+      </c>
+      <c r="F127" t="s">
+        <v>304</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K127" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>571</v>
+      </c>
+      <c r="C128" t="s">
+        <v>304</v>
+      </c>
+      <c r="D128" t="s">
+        <v>571</v>
+      </c>
+      <c r="F128" t="s">
+        <v>304</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K128" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>572</v>
+      </c>
+      <c r="C129" t="s">
+        <v>304</v>
+      </c>
+      <c r="D129" t="s">
+        <v>572</v>
+      </c>
+      <c r="F129" t="s">
+        <v>304</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1336</v>
+      </c>
+      <c r="K129" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>573</v>
+      </c>
+      <c r="C130" t="s">
+        <v>304</v>
+      </c>
+      <c r="D130" t="s">
+        <v>573</v>
+      </c>
+      <c r="F130" t="s">
+        <v>304</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K130" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>574</v>
+      </c>
+      <c r="C131" t="s">
+        <v>304</v>
+      </c>
+      <c r="D131" t="s">
+        <v>574</v>
+      </c>
+      <c r="F131" t="s">
+        <v>304</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1338</v>
+      </c>
+      <c r="K131" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>575</v>
+      </c>
+      <c r="C132" t="s">
+        <v>304</v>
+      </c>
+      <c r="D132" t="s">
+        <v>575</v>
+      </c>
+      <c r="F132" t="s">
+        <v>304</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K132" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>576</v>
+      </c>
+      <c r="C133" t="s">
+        <v>304</v>
+      </c>
+      <c r="D133" t="s">
+        <v>576</v>
+      </c>
+      <c r="F133" t="s">
+        <v>304</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1340</v>
+      </c>
+      <c r="K133" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>577</v>
+      </c>
+      <c r="C134" t="s">
+        <v>304</v>
+      </c>
+      <c r="D134" t="s">
+        <v>577</v>
+      </c>
+      <c r="F134" t="s">
+        <v>304</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K134" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>578</v>
+      </c>
+      <c r="C135" t="s">
+        <v>304</v>
+      </c>
+      <c r="D135" t="s">
+        <v>578</v>
+      </c>
+      <c r="F135" t="s">
+        <v>304</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K135" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>579</v>
+      </c>
+      <c r="C136" t="s">
+        <v>304</v>
+      </c>
+      <c r="D136" t="s">
+        <v>579</v>
+      </c>
+      <c r="F136" t="s">
+        <v>304</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1343</v>
+      </c>
+      <c r="K136" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>580</v>
+      </c>
+      <c r="C137" t="s">
+        <v>304</v>
+      </c>
+      <c r="D137" t="s">
+        <v>580</v>
+      </c>
+      <c r="F137" t="s">
+        <v>304</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>581</v>
+      </c>
+      <c r="C138" t="s">
+        <v>304</v>
+      </c>
+      <c r="D138" t="s">
+        <v>581</v>
+      </c>
+      <c r="F138" t="s">
+        <v>304</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K138" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>587</v>
+      </c>
+      <c r="C139" t="s">
+        <v>304</v>
+      </c>
+      <c r="D139" t="s">
+        <v>587</v>
+      </c>
+      <c r="F139" t="s">
+        <v>304</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1522</v>
+      </c>
+      <c r="K139" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>590</v>
+      </c>
+      <c r="C140" t="s">
+        <v>304</v>
+      </c>
+      <c r="D140" t="s">
+        <v>590</v>
+      </c>
+      <c r="F140" t="s">
+        <v>304</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K140" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>594</v>
+      </c>
+      <c r="C141" t="s">
+        <v>304</v>
+      </c>
+      <c r="D141" t="s">
+        <v>594</v>
+      </c>
+      <c r="F141" t="s">
+        <v>304</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K141" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>595</v>
+      </c>
+      <c r="C142" t="s">
+        <v>304</v>
+      </c>
+      <c r="D142" t="s">
+        <v>595</v>
+      </c>
+      <c r="F142" t="s">
+        <v>304</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K142" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>596</v>
+      </c>
+      <c r="C143" t="s">
+        <v>304</v>
+      </c>
+      <c r="D143" t="s">
+        <v>596</v>
+      </c>
+      <c r="F143" t="s">
+        <v>304</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K143" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>597</v>
+      </c>
+      <c r="C144" t="s">
+        <v>304</v>
+      </c>
+      <c r="D144" t="s">
+        <v>597</v>
+      </c>
+      <c r="F144" t="s">
+        <v>304</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K144" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>598</v>
+      </c>
+      <c r="C145" t="s">
+        <v>304</v>
+      </c>
+      <c r="D145" t="s">
+        <v>598</v>
+      </c>
+      <c r="F145" t="s">
+        <v>304</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K145" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>599</v>
+      </c>
+      <c r="C146" t="s">
+        <v>304</v>
+      </c>
+      <c r="D146" t="s">
+        <v>599</v>
+      </c>
+      <c r="F146" t="s">
+        <v>304</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K146" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>600</v>
+      </c>
+      <c r="C147" t="s">
+        <v>304</v>
+      </c>
+      <c r="D147" t="s">
+        <v>600</v>
+      </c>
+      <c r="F147" t="s">
+        <v>304</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1349</v>
+      </c>
+      <c r="K147" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>601</v>
+      </c>
+      <c r="C148" t="s">
+        <v>304</v>
+      </c>
+      <c r="D148" t="s">
+        <v>601</v>
+      </c>
+      <c r="F148" t="s">
+        <v>304</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K148" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>602</v>
+      </c>
+      <c r="C149" t="s">
+        <v>304</v>
+      </c>
+      <c r="D149" t="s">
+        <v>602</v>
+      </c>
+      <c r="F149" t="s">
+        <v>304</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1525</v>
+      </c>
+      <c r="K149" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>603</v>
+      </c>
+      <c r="C150" t="s">
+        <v>304</v>
+      </c>
+      <c r="D150" t="s">
+        <v>603</v>
+      </c>
+      <c r="F150" t="s">
+        <v>304</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1351</v>
+      </c>
+      <c r="K150" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>604</v>
+      </c>
+      <c r="C151" t="s">
+        <v>304</v>
+      </c>
+      <c r="D151" t="s">
+        <v>604</v>
+      </c>
+      <c r="F151" t="s">
+        <v>304</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K151" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>605</v>
+      </c>
+      <c r="C152" t="s">
+        <v>304</v>
+      </c>
+      <c r="D152" t="s">
+        <v>605</v>
+      </c>
+      <c r="F152" t="s">
+        <v>304</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K152" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>606</v>
+      </c>
+      <c r="C153" t="s">
+        <v>304</v>
+      </c>
+      <c r="D153" t="s">
+        <v>606</v>
+      </c>
+      <c r="F153" t="s">
+        <v>304</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K153" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>607</v>
+      </c>
+      <c r="C154" t="s">
+        <v>304</v>
+      </c>
+      <c r="D154" t="s">
+        <v>607</v>
+      </c>
+      <c r="F154" t="s">
+        <v>304</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K154" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>608</v>
+      </c>
+      <c r="C155" t="s">
+        <v>304</v>
+      </c>
+      <c r="D155" t="s">
+        <v>608</v>
+      </c>
+      <c r="F155" t="s">
+        <v>304</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K155" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>609</v>
+      </c>
+      <c r="C156" t="s">
+        <v>304</v>
+      </c>
+      <c r="D156" t="s">
+        <v>609</v>
+      </c>
+      <c r="F156" t="s">
+        <v>304</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K156" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>610</v>
+      </c>
+      <c r="C157" t="s">
+        <v>304</v>
+      </c>
+      <c r="D157" t="s">
+        <v>610</v>
+      </c>
+      <c r="F157" t="s">
+        <v>304</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K157" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>611</v>
+      </c>
+      <c r="C158" t="s">
+        <v>304</v>
+      </c>
+      <c r="D158" t="s">
+        <v>611</v>
+      </c>
+      <c r="F158" t="s">
+        <v>304</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K158" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>612</v>
+      </c>
+      <c r="C159" t="s">
+        <v>304</v>
+      </c>
+      <c r="D159" t="s">
+        <v>612</v>
+      </c>
+      <c r="F159" t="s">
+        <v>304</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1360</v>
+      </c>
+      <c r="K159" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>613</v>
+      </c>
+      <c r="C160" t="s">
+        <v>304</v>
+      </c>
+      <c r="D160" t="s">
+        <v>613</v>
+      </c>
+      <c r="F160" t="s">
+        <v>304</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K160" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>614</v>
+      </c>
+      <c r="C161" t="s">
+        <v>304</v>
+      </c>
+      <c r="D161" t="s">
+        <v>614</v>
+      </c>
+      <c r="F161" t="s">
+        <v>304</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K161" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>618</v>
+      </c>
+      <c r="C162" t="s">
+        <v>304</v>
+      </c>
+      <c r="D162" t="s">
+        <v>618</v>
+      </c>
+      <c r="F162" t="s">
+        <v>304</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1363</v>
+      </c>
+      <c r="K162" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>634</v>
+      </c>
+      <c r="C163" t="s">
+        <v>304</v>
+      </c>
+      <c r="D163" t="s">
+        <v>634</v>
+      </c>
+      <c r="F163" t="s">
+        <v>304</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K163" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>643</v>
+      </c>
+      <c r="C164" t="s">
+        <v>304</v>
+      </c>
+      <c r="D164" t="s">
+        <v>643</v>
+      </c>
+      <c r="F164" t="s">
+        <v>304</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K164" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>648</v>
+      </c>
+      <c r="C165" t="s">
+        <v>304</v>
+      </c>
+      <c r="D165" t="s">
+        <v>648</v>
+      </c>
+      <c r="F165" t="s">
+        <v>304</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K165" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>649</v>
+      </c>
+      <c r="C166" t="s">
+        <v>304</v>
+      </c>
+      <c r="D166" t="s">
+        <v>649</v>
+      </c>
+      <c r="F166" t="s">
+        <v>304</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1366</v>
+      </c>
+      <c r="K166" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>650</v>
+      </c>
+      <c r="C167" t="s">
+        <v>304</v>
+      </c>
+      <c r="D167" t="s">
+        <v>650</v>
+      </c>
+      <c r="F167" t="s">
+        <v>304</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1453</v>
+      </c>
+      <c r="K167" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>654</v>
+      </c>
+      <c r="C168" t="s">
+        <v>304</v>
+      </c>
+      <c r="D168" t="s">
+        <v>654</v>
+      </c>
+      <c r="F168" t="s">
+        <v>304</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1420</v>
+      </c>
+      <c r="K168" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>655</v>
+      </c>
+      <c r="C169" t="s">
+        <v>304</v>
+      </c>
+      <c r="D169" t="s">
+        <v>655</v>
+      </c>
+      <c r="F169" t="s">
+        <v>304</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1526</v>
+      </c>
+      <c r="K169" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>656</v>
+      </c>
+      <c r="C170" t="s">
+        <v>304</v>
+      </c>
+      <c r="D170" t="s">
+        <v>656</v>
+      </c>
+      <c r="F170" t="s">
+        <v>304</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K170" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>657</v>
+      </c>
+      <c r="C171" t="s">
+        <v>304</v>
+      </c>
+      <c r="D171" t="s">
+        <v>657</v>
+      </c>
+      <c r="F171" t="s">
+        <v>304</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1367</v>
+      </c>
+      <c r="K171" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>658</v>
+      </c>
+      <c r="C172" t="s">
+        <v>304</v>
+      </c>
+      <c r="D172" t="s">
+        <v>658</v>
+      </c>
+      <c r="F172" t="s">
+        <v>304</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1403</v>
+      </c>
+      <c r="K172" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>659</v>
+      </c>
+      <c r="C173" t="s">
+        <v>304</v>
+      </c>
+      <c r="D173" t="s">
+        <v>659</v>
+      </c>
+      <c r="F173" t="s">
+        <v>304</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K173" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>660</v>
+      </c>
+      <c r="C174" t="s">
+        <v>304</v>
+      </c>
+      <c r="D174" t="s">
+        <v>660</v>
+      </c>
+      <c r="F174" t="s">
+        <v>304</v>
+      </c>
+      <c r="I174" t="s">
+        <v>1404</v>
+      </c>
+      <c r="K174" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>661</v>
+      </c>
+      <c r="C175" t="s">
+        <v>304</v>
+      </c>
+      <c r="D175" t="s">
+        <v>661</v>
+      </c>
+      <c r="F175" t="s">
+        <v>304</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1436</v>
+      </c>
+      <c r="K175" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>663</v>
+      </c>
+      <c r="C176" t="s">
+        <v>304</v>
+      </c>
+      <c r="D176" t="s">
+        <v>663</v>
+      </c>
+      <c r="F176" t="s">
+        <v>304</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1443</v>
+      </c>
+      <c r="K176" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>664</v>
+      </c>
+      <c r="C177" t="s">
+        <v>304</v>
+      </c>
+      <c r="D177" t="s">
+        <v>664</v>
+      </c>
+      <c r="F177" t="s">
+        <v>304</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K177" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>83</v>
+      </c>
+      <c r="C178" t="s">
+        <v>304</v>
+      </c>
+      <c r="D178" t="s">
+        <v>83</v>
+      </c>
+      <c r="F178" t="s">
+        <v>304</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1368</v>
+      </c>
+      <c r="K178" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>666</v>
+      </c>
+      <c r="C179" t="s">
+        <v>304</v>
+      </c>
+      <c r="D179" t="s">
+        <v>666</v>
+      </c>
+      <c r="F179" t="s">
+        <v>304</v>
+      </c>
+      <c r="I179" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K179" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>668</v>
+      </c>
+      <c r="C180" t="s">
+        <v>304</v>
+      </c>
+      <c r="D180" t="s">
+        <v>668</v>
+      </c>
+      <c r="F180" t="s">
+        <v>304</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K180" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>669</v>
+      </c>
+      <c r="C181" t="s">
+        <v>304</v>
+      </c>
+      <c r="D181" t="s">
+        <v>669</v>
+      </c>
+      <c r="F181" t="s">
+        <v>304</v>
+      </c>
+      <c r="I181" t="s">
+        <v>1371</v>
+      </c>
+      <c r="K181" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>670</v>
+      </c>
+      <c r="C182" t="s">
+        <v>304</v>
+      </c>
+      <c r="D182" t="s">
+        <v>670</v>
+      </c>
+      <c r="F182" t="s">
+        <v>304</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K182" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>671</v>
+      </c>
+      <c r="C183" t="s">
+        <v>304</v>
+      </c>
+      <c r="D183" t="s">
+        <v>671</v>
+      </c>
+      <c r="F183" t="s">
+        <v>304</v>
+      </c>
+      <c r="I183" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K183" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>672</v>
+      </c>
+      <c r="C184" t="s">
+        <v>304</v>
+      </c>
+      <c r="D184" t="s">
+        <v>672</v>
+      </c>
+      <c r="F184" t="s">
+        <v>304</v>
+      </c>
+      <c r="I184" t="s">
+        <v>1374</v>
+      </c>
+      <c r="K184" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>673</v>
+      </c>
+      <c r="C185" t="s">
+        <v>304</v>
+      </c>
+      <c r="D185" t="s">
+        <v>673</v>
+      </c>
+      <c r="F185" t="s">
+        <v>304</v>
+      </c>
+      <c r="I185" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K185" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>674</v>
+      </c>
+      <c r="C186" t="s">
+        <v>304</v>
+      </c>
+      <c r="D186" t="s">
+        <v>674</v>
+      </c>
+      <c r="F186" t="s">
+        <v>304</v>
+      </c>
+      <c r="I186" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K186" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>675</v>
+      </c>
+      <c r="C187" t="s">
+        <v>304</v>
+      </c>
+      <c r="D187" t="s">
+        <v>675</v>
+      </c>
+      <c r="F187" t="s">
+        <v>304</v>
+      </c>
+      <c r="I187" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K187" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>676</v>
+      </c>
+      <c r="C188" t="s">
+        <v>304</v>
+      </c>
+      <c r="D188" t="s">
+        <v>676</v>
+      </c>
+      <c r="F188" t="s">
+        <v>304</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K188" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>677</v>
+      </c>
+      <c r="C189" t="s">
+        <v>304</v>
+      </c>
+      <c r="D189" t="s">
+        <v>677</v>
+      </c>
+      <c r="F189" t="s">
+        <v>304</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K189" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>678</v>
+      </c>
+      <c r="C190" t="s">
+        <v>304</v>
+      </c>
+      <c r="D190" t="s">
+        <v>678</v>
+      </c>
+      <c r="F190" t="s">
+        <v>304</v>
+      </c>
+      <c r="I190" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K190" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>679</v>
+      </c>
+      <c r="C191" t="s">
+        <v>304</v>
+      </c>
+      <c r="D191" t="s">
+        <v>679</v>
+      </c>
+      <c r="F191" t="s">
+        <v>304</v>
+      </c>
+      <c r="I191" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K191" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>680</v>
+      </c>
+      <c r="C192" t="s">
+        <v>304</v>
+      </c>
+      <c r="D192" t="s">
+        <v>680</v>
+      </c>
+      <c r="F192" t="s">
+        <v>304</v>
+      </c>
+      <c r="I192" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K192" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>681</v>
+      </c>
+      <c r="C193" t="s">
+        <v>304</v>
+      </c>
+      <c r="D193" t="s">
+        <v>681</v>
+      </c>
+      <c r="F193" t="s">
+        <v>304</v>
+      </c>
+      <c r="I193" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K193" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>682</v>
+      </c>
+      <c r="C194" t="s">
+        <v>304</v>
+      </c>
+      <c r="D194" t="s">
+        <v>682</v>
+      </c>
+      <c r="F194" t="s">
+        <v>304</v>
+      </c>
+      <c r="I194" t="s">
+        <v>1376</v>
+      </c>
+      <c r="K194" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>684</v>
+      </c>
+      <c r="C195" t="s">
+        <v>304</v>
+      </c>
+      <c r="D195" t="s">
+        <v>684</v>
+      </c>
+      <c r="F195" t="s">
+        <v>304</v>
+      </c>
+      <c r="I195" t="s">
+        <v>1377</v>
+      </c>
+      <c r="K195" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>685</v>
+      </c>
+      <c r="C196" t="s">
+        <v>304</v>
+      </c>
+      <c r="D196" t="s">
+        <v>685</v>
+      </c>
+      <c r="F196" t="s">
+        <v>304</v>
+      </c>
+      <c r="I196" t="s">
+        <v>1433</v>
+      </c>
+      <c r="K196" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>686</v>
+      </c>
+      <c r="C197" t="s">
+        <v>304</v>
+      </c>
+      <c r="D197" t="s">
+        <v>686</v>
+      </c>
+      <c r="F197" t="s">
+        <v>304</v>
+      </c>
+      <c r="I197" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K197" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>687</v>
+      </c>
+      <c r="C198" t="s">
+        <v>304</v>
+      </c>
+      <c r="D198" t="s">
+        <v>687</v>
+      </c>
+      <c r="F198" t="s">
+        <v>304</v>
+      </c>
+      <c r="I198" t="s">
+        <v>1379</v>
+      </c>
+      <c r="K198" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>688</v>
+      </c>
+      <c r="C199" t="s">
+        <v>304</v>
+      </c>
+      <c r="D199" t="s">
+        <v>688</v>
+      </c>
+      <c r="F199" t="s">
+        <v>304</v>
+      </c>
+      <c r="I199" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K199" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>689</v>
+      </c>
+      <c r="C200" t="s">
+        <v>304</v>
+      </c>
+      <c r="D200" t="s">
+        <v>689</v>
+      </c>
+      <c r="F200" t="s">
+        <v>304</v>
+      </c>
+      <c r="I200" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K200" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>690</v>
+      </c>
+      <c r="C201" t="s">
+        <v>304</v>
+      </c>
+      <c r="D201" t="s">
+        <v>690</v>
+      </c>
+      <c r="F201" t="s">
+        <v>304</v>
+      </c>
+      <c r="I201" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K201" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>691</v>
+      </c>
+      <c r="C202" t="s">
+        <v>304</v>
+      </c>
+      <c r="D202" t="s">
+        <v>691</v>
+      </c>
+      <c r="F202" t="s">
+        <v>304</v>
+      </c>
+      <c r="I202" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K202" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>692</v>
+      </c>
+      <c r="C203" t="s">
+        <v>304</v>
+      </c>
+      <c r="D203" t="s">
+        <v>692</v>
+      </c>
+      <c r="F203" t="s">
+        <v>304</v>
+      </c>
+      <c r="I203" t="s">
+        <v>1380</v>
+      </c>
+      <c r="K203" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>696</v>
+      </c>
+      <c r="C204" t="s">
+        <v>304</v>
+      </c>
+      <c r="D204" t="s">
+        <v>696</v>
+      </c>
+      <c r="F204" t="s">
+        <v>304</v>
+      </c>
+      <c r="I204" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K204" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>697</v>
+      </c>
+      <c r="C205" t="s">
+        <v>304</v>
+      </c>
+      <c r="D205" t="s">
+        <v>697</v>
+      </c>
+      <c r="F205" t="s">
+        <v>304</v>
+      </c>
+      <c r="I205" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K205" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>701</v>
+      </c>
+      <c r="C206" t="s">
+        <v>304</v>
+      </c>
+      <c r="D206" t="s">
+        <v>701</v>
+      </c>
+      <c r="F206" t="s">
+        <v>304</v>
+      </c>
+      <c r="I206" t="s">
+        <v>1480</v>
+      </c>
+      <c r="K206" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>702</v>
+      </c>
+      <c r="C207" t="s">
+        <v>304</v>
+      </c>
+      <c r="D207" t="s">
+        <v>702</v>
+      </c>
+      <c r="F207" t="s">
+        <v>304</v>
+      </c>
+      <c r="I207" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K207" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>703</v>
+      </c>
+      <c r="C208" t="s">
+        <v>304</v>
+      </c>
+      <c r="D208" t="s">
+        <v>703</v>
+      </c>
+      <c r="F208" t="s">
+        <v>304</v>
+      </c>
+      <c r="I208" t="s">
+        <v>1532</v>
+      </c>
+      <c r="K208" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>704</v>
+      </c>
+      <c r="C209" t="s">
+        <v>304</v>
+      </c>
+      <c r="D209" t="s">
+        <v>704</v>
+      </c>
+      <c r="F209" t="s">
+        <v>304</v>
+      </c>
+      <c r="I209" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K209" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>705</v>
+      </c>
+      <c r="C210" t="s">
+        <v>304</v>
+      </c>
+      <c r="D210" t="s">
+        <v>705</v>
+      </c>
+      <c r="F210" t="s">
+        <v>304</v>
+      </c>
+      <c r="I210" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K210" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>706</v>
+      </c>
+      <c r="C211" t="s">
+        <v>304</v>
+      </c>
+      <c r="D211" t="s">
+        <v>706</v>
+      </c>
+      <c r="F211" t="s">
+        <v>304</v>
+      </c>
+      <c r="I211" t="s">
+        <v>1424</v>
+      </c>
+      <c r="K211" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>707</v>
+      </c>
+      <c r="C212" t="s">
+        <v>304</v>
+      </c>
+      <c r="D212" t="s">
+        <v>707</v>
+      </c>
+      <c r="F212" t="s">
+        <v>304</v>
+      </c>
+      <c r="I212" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K212" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>708</v>
+      </c>
+      <c r="C213" t="s">
+        <v>304</v>
+      </c>
+      <c r="D213" t="s">
+        <v>708</v>
+      </c>
+      <c r="F213" t="s">
+        <v>304</v>
+      </c>
+      <c r="I213" t="s">
+        <v>1384</v>
+      </c>
+      <c r="K213" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>709</v>
+      </c>
+      <c r="C214" t="s">
+        <v>304</v>
+      </c>
+      <c r="D214" t="s">
+        <v>709</v>
+      </c>
+      <c r="F214" t="s">
+        <v>304</v>
+      </c>
+      <c r="I214" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K214" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>710</v>
+      </c>
+      <c r="C215" t="s">
+        <v>304</v>
+      </c>
+      <c r="D215" t="s">
+        <v>710</v>
+      </c>
+      <c r="F215" t="s">
+        <v>304</v>
+      </c>
+      <c r="I215" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K215" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>711</v>
+      </c>
+      <c r="C216" t="s">
+        <v>304</v>
+      </c>
+      <c r="D216" t="s">
+        <v>711</v>
+      </c>
+      <c r="F216" t="s">
+        <v>304</v>
+      </c>
+      <c r="I216" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K216" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>712</v>
+      </c>
+      <c r="C217" t="s">
+        <v>304</v>
+      </c>
+      <c r="D217" t="s">
+        <v>712</v>
+      </c>
+      <c r="F217" t="s">
+        <v>304</v>
+      </c>
+      <c r="I217" t="s">
+        <v>1386</v>
+      </c>
+      <c r="K217" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>713</v>
+      </c>
+      <c r="C218" t="s">
+        <v>304</v>
+      </c>
+      <c r="D218" t="s">
+        <v>713</v>
+      </c>
+      <c r="F218" t="s">
+        <v>304</v>
+      </c>
+      <c r="I218" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K218" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>714</v>
+      </c>
+      <c r="C219" t="s">
+        <v>304</v>
+      </c>
+      <c r="D219" t="s">
+        <v>714</v>
+      </c>
+      <c r="F219" t="s">
+        <v>304</v>
+      </c>
+      <c r="I219" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K219" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>715</v>
+      </c>
+      <c r="C220" t="s">
+        <v>304</v>
+      </c>
+      <c r="D220" t="s">
+        <v>715</v>
+      </c>
+      <c r="F220" t="s">
+        <v>304</v>
+      </c>
+      <c r="I220" t="s">
+        <v>1389</v>
+      </c>
+      <c r="K220" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>716</v>
+      </c>
+      <c r="C221" t="s">
+        <v>304</v>
+      </c>
+      <c r="D221" t="s">
+        <v>716</v>
+      </c>
+      <c r="F221" t="s">
+        <v>304</v>
+      </c>
+      <c r="I221" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K221" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>717</v>
+      </c>
+      <c r="C222" t="s">
+        <v>304</v>
+      </c>
+      <c r="D222" t="s">
+        <v>717</v>
+      </c>
+      <c r="F222" t="s">
+        <v>304</v>
+      </c>
+      <c r="I222" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K222" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>718</v>
+      </c>
+      <c r="C223" t="s">
+        <v>304</v>
+      </c>
+      <c r="D223" t="s">
+        <v>718</v>
+      </c>
+      <c r="F223" t="s">
+        <v>304</v>
+      </c>
+      <c r="I223" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K223" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>739</v>
+      </c>
+      <c r="C224" t="s">
+        <v>304</v>
+      </c>
+      <c r="D224" t="s">
+        <v>739</v>
+      </c>
+      <c r="F224" t="s">
+        <v>304</v>
+      </c>
+      <c r="I224" t="s">
+        <v>1492</v>
+      </c>
+      <c r="K224" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>740</v>
+      </c>
+      <c r="C225" t="s">
+        <v>304</v>
+      </c>
+      <c r="D225" t="s">
+        <v>740</v>
+      </c>
+      <c r="F225" t="s">
+        <v>304</v>
+      </c>
+      <c r="I225" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K225" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>741</v>
+      </c>
+      <c r="C226" t="s">
+        <v>304</v>
+      </c>
+      <c r="D226" t="s">
+        <v>741</v>
+      </c>
+      <c r="F226" t="s">
+        <v>304</v>
+      </c>
+      <c r="I226" t="s">
+        <v>1481</v>
+      </c>
+      <c r="K226" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>742</v>
+      </c>
+      <c r="C227" t="s">
+        <v>304</v>
+      </c>
+      <c r="D227" t="s">
+        <v>742</v>
+      </c>
+      <c r="F227" t="s">
+        <v>304</v>
+      </c>
+      <c r="I227" t="s">
+        <v>1390</v>
+      </c>
+      <c r="K227" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>743</v>
+      </c>
+      <c r="C228" t="s">
+        <v>304</v>
+      </c>
+      <c r="D228" t="s">
+        <v>743</v>
+      </c>
+      <c r="F228" t="s">
+        <v>304</v>
+      </c>
+      <c r="I228" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K228" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>744</v>
+      </c>
+      <c r="C229" t="s">
+        <v>304</v>
+      </c>
+      <c r="D229" t="s">
+        <v>744</v>
+      </c>
+      <c r="F229" t="s">
+        <v>304</v>
+      </c>
+      <c r="I229" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K229" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>745</v>
+      </c>
+      <c r="C230" t="s">
+        <v>304</v>
+      </c>
+      <c r="D230" t="s">
+        <v>745</v>
+      </c>
+      <c r="F230" t="s">
+        <v>304</v>
+      </c>
+      <c r="I230" t="s">
+        <v>1391</v>
+      </c>
+      <c r="K230" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>746</v>
+      </c>
+      <c r="C231" t="s">
+        <v>304</v>
+      </c>
+      <c r="D231" t="s">
+        <v>746</v>
+      </c>
+      <c r="F231" t="s">
+        <v>304</v>
+      </c>
+      <c r="I231" t="s">
+        <v>1534</v>
+      </c>
+      <c r="K231" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>747</v>
+      </c>
+      <c r="C232" t="s">
+        <v>304</v>
+      </c>
+      <c r="D232" t="s">
+        <v>747</v>
+      </c>
+      <c r="F232" t="s">
+        <v>304</v>
+      </c>
+      <c r="I232" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K232" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>748</v>
+      </c>
+      <c r="C233" t="s">
+        <v>304</v>
+      </c>
+      <c r="D233" t="s">
+        <v>748</v>
+      </c>
+      <c r="F233" t="s">
+        <v>304</v>
+      </c>
+      <c r="I233" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K233" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>749</v>
+      </c>
+      <c r="C234" t="s">
+        <v>304</v>
+      </c>
+      <c r="D234" t="s">
+        <v>749</v>
+      </c>
+      <c r="F234" t="s">
+        <v>304</v>
+      </c>
+      <c r="I234" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K234" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>750</v>
+      </c>
+      <c r="C235" t="s">
+        <v>304</v>
+      </c>
+      <c r="D235" t="s">
+        <v>750</v>
+      </c>
+      <c r="F235" t="s">
+        <v>304</v>
+      </c>
+      <c r="I235" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K235" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>751</v>
+      </c>
+      <c r="C236" t="s">
+        <v>304</v>
+      </c>
+      <c r="D236" t="s">
+        <v>751</v>
+      </c>
+      <c r="F236" t="s">
+        <v>304</v>
+      </c>
+      <c r="I236" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K236" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>752</v>
+      </c>
+      <c r="C237" t="s">
+        <v>304</v>
+      </c>
+      <c r="D237" t="s">
+        <v>752</v>
+      </c>
+      <c r="F237" t="s">
+        <v>304</v>
+      </c>
+      <c r="I237" t="s">
+        <v>1393</v>
+      </c>
+      <c r="K237" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>753</v>
+      </c>
+      <c r="C238" t="s">
+        <v>304</v>
+      </c>
+      <c r="D238" t="s">
+        <v>753</v>
+      </c>
+      <c r="F238" t="s">
+        <v>304</v>
+      </c>
+      <c r="I238" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K238" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>754</v>
+      </c>
+      <c r="C239" t="s">
+        <v>304</v>
+      </c>
+      <c r="D239" t="s">
+        <v>754</v>
+      </c>
+      <c r="F239" t="s">
+        <v>304</v>
+      </c>
+      <c r="I239" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K239" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>755</v>
+      </c>
+      <c r="C240" t="s">
+        <v>304</v>
+      </c>
+      <c r="D240" t="s">
+        <v>755</v>
+      </c>
+      <c r="F240" t="s">
+        <v>304</v>
+      </c>
+      <c r="I240" t="s">
+        <v>1401</v>
+      </c>
+      <c r="K240" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>756</v>
+      </c>
+      <c r="C241" t="s">
+        <v>304</v>
+      </c>
+      <c r="D241" t="s">
+        <v>756</v>
+      </c>
+      <c r="F241" t="s">
+        <v>304</v>
+      </c>
+      <c r="K241" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>757</v>
+      </c>
+      <c r="C242" t="s">
+        <v>304</v>
+      </c>
+      <c r="D242" t="s">
+        <v>757</v>
+      </c>
+      <c r="F242" t="s">
+        <v>304</v>
+      </c>
+      <c r="K242" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>758</v>
+      </c>
+      <c r="C243" t="s">
+        <v>304</v>
+      </c>
+      <c r="D243" t="s">
+        <v>758</v>
+      </c>
+      <c r="F243" t="s">
+        <v>304</v>
+      </c>
+      <c r="K243" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>759</v>
+      </c>
+      <c r="C244" t="s">
+        <v>304</v>
+      </c>
+      <c r="D244" t="s">
+        <v>759</v>
+      </c>
+      <c r="F244" t="s">
+        <v>304</v>
+      </c>
+      <c r="K244" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>760</v>
+      </c>
+      <c r="C245" t="s">
+        <v>304</v>
+      </c>
+      <c r="D245" t="s">
+        <v>760</v>
+      </c>
+      <c r="F245" t="s">
+        <v>304</v>
+      </c>
+      <c r="K245" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>761</v>
+      </c>
+      <c r="C246" t="s">
+        <v>304</v>
+      </c>
+      <c r="D246" t="s">
+        <v>761</v>
+      </c>
+      <c r="F246" t="s">
+        <v>304</v>
+      </c>
+      <c r="K246" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>770</v>
+      </c>
+      <c r="C247" t="s">
+        <v>304</v>
+      </c>
+      <c r="D247" t="s">
+        <v>770</v>
+      </c>
+      <c r="F247" t="s">
+        <v>304</v>
+      </c>
+      <c r="K247" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>781</v>
+      </c>
+      <c r="C248" t="s">
+        <v>304</v>
+      </c>
+      <c r="D248" t="s">
+        <v>781</v>
+      </c>
+      <c r="F248" t="s">
+        <v>304</v>
+      </c>
+      <c r="K248" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>782</v>
+      </c>
+      <c r="C249" t="s">
+        <v>304</v>
+      </c>
+      <c r="D249" t="s">
+        <v>782</v>
+      </c>
+      <c r="F249" t="s">
+        <v>304</v>
+      </c>
+      <c r="K249" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>783</v>
+      </c>
+      <c r="C250" t="s">
+        <v>304</v>
+      </c>
+      <c r="D250" t="s">
+        <v>783</v>
+      </c>
+      <c r="F250" t="s">
+        <v>304</v>
+      </c>
+      <c r="K250" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>784</v>
+      </c>
+      <c r="C251" t="s">
+        <v>304</v>
+      </c>
+      <c r="D251" t="s">
+        <v>784</v>
+      </c>
+      <c r="F251" t="s">
+        <v>304</v>
+      </c>
+      <c r="K251" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>785</v>
+      </c>
+      <c r="C252" t="s">
+        <v>304</v>
+      </c>
+      <c r="D252" t="s">
+        <v>785</v>
+      </c>
+      <c r="F252" t="s">
+        <v>304</v>
+      </c>
+      <c r="K252" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>786</v>
+      </c>
+      <c r="C253" t="s">
+        <v>304</v>
+      </c>
+      <c r="D253" t="s">
+        <v>786</v>
+      </c>
+      <c r="F253" t="s">
+        <v>304</v>
+      </c>
+      <c r="K253" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>787</v>
+      </c>
+      <c r="C254" t="s">
+        <v>304</v>
+      </c>
+      <c r="D254" t="s">
+        <v>787</v>
+      </c>
+      <c r="F254" t="s">
+        <v>304</v>
+      </c>
+      <c r="K254" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>788</v>
+      </c>
+      <c r="C255" t="s">
+        <v>304</v>
+      </c>
+      <c r="D255" t="s">
+        <v>788</v>
+      </c>
+      <c r="F255" t="s">
+        <v>304</v>
+      </c>
+      <c r="K255" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>789</v>
+      </c>
+      <c r="C256" t="s">
+        <v>304</v>
+      </c>
+      <c r="D256" t="s">
+        <v>789</v>
+      </c>
+      <c r="F256" t="s">
+        <v>304</v>
+      </c>
+      <c r="K256" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>790</v>
+      </c>
+      <c r="C257" t="s">
+        <v>304</v>
+      </c>
+      <c r="D257" t="s">
+        <v>790</v>
+      </c>
+      <c r="F257" t="s">
+        <v>304</v>
+      </c>
+      <c r="K257" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>791</v>
+      </c>
+      <c r="C258" t="s">
+        <v>304</v>
+      </c>
+      <c r="D258" t="s">
+        <v>791</v>
+      </c>
+      <c r="F258" t="s">
+        <v>304</v>
+      </c>
+      <c r="K258" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>792</v>
+      </c>
+      <c r="C259" t="s">
+        <v>304</v>
+      </c>
+      <c r="D259" t="s">
+        <v>792</v>
+      </c>
+      <c r="F259" t="s">
+        <v>304</v>
+      </c>
+      <c r="K259" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>793</v>
+      </c>
+      <c r="C260" t="s">
+        <v>304</v>
+      </c>
+      <c r="D260" t="s">
+        <v>793</v>
+      </c>
+      <c r="F260" t="s">
+        <v>304</v>
+      </c>
+      <c r="K260" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>795</v>
+      </c>
+      <c r="C261" t="s">
+        <v>304</v>
+      </c>
+      <c r="D261" t="s">
+        <v>795</v>
+      </c>
+      <c r="F261" t="s">
+        <v>304</v>
+      </c>
+      <c r="K261" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>796</v>
+      </c>
+      <c r="C262" t="s">
+        <v>304</v>
+      </c>
+      <c r="D262" t="s">
+        <v>796</v>
+      </c>
+      <c r="F262" t="s">
+        <v>304</v>
+      </c>
+      <c r="K262" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>797</v>
+      </c>
+      <c r="C263" t="s">
+        <v>304</v>
+      </c>
+      <c r="D263" t="s">
+        <v>797</v>
+      </c>
+      <c r="F263" t="s">
+        <v>304</v>
+      </c>
+      <c r="K263" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>798</v>
+      </c>
+      <c r="C264" t="s">
+        <v>304</v>
+      </c>
+      <c r="D264" t="s">
+        <v>798</v>
+      </c>
+      <c r="F264" t="s">
+        <v>304</v>
+      </c>
+      <c r="K264" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>799</v>
+      </c>
+      <c r="C265" t="s">
+        <v>304</v>
+      </c>
+      <c r="D265" t="s">
+        <v>799</v>
+      </c>
+      <c r="F265" t="s">
+        <v>304</v>
+      </c>
+      <c r="K265" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>800</v>
+      </c>
+      <c r="C266" t="s">
+        <v>304</v>
+      </c>
+      <c r="D266" t="s">
+        <v>800</v>
+      </c>
+      <c r="F266" t="s">
+        <v>304</v>
+      </c>
+      <c r="K266" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>801</v>
+      </c>
+      <c r="C267" t="s">
+        <v>304</v>
+      </c>
+      <c r="D267" t="s">
+        <v>801</v>
+      </c>
+      <c r="F267" t="s">
+        <v>304</v>
+      </c>
+      <c r="K267" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>802</v>
+      </c>
+      <c r="C268" t="s">
+        <v>304</v>
+      </c>
+      <c r="D268" t="s">
+        <v>802</v>
+      </c>
+      <c r="F268" t="s">
+        <v>304</v>
+      </c>
+      <c r="K268" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>803</v>
+      </c>
+      <c r="C269" t="s">
+        <v>304</v>
+      </c>
+      <c r="D269" t="s">
+        <v>803</v>
+      </c>
+      <c r="F269" t="s">
+        <v>304</v>
+      </c>
+      <c r="K269" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>804</v>
+      </c>
+      <c r="C270" t="s">
+        <v>304</v>
+      </c>
+      <c r="D270" t="s">
+        <v>804</v>
+      </c>
+      <c r="F270" t="s">
+        <v>304</v>
+      </c>
+      <c r="K270" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>805</v>
+      </c>
+      <c r="C271" t="s">
+        <v>304</v>
+      </c>
+      <c r="D271" t="s">
+        <v>805</v>
+      </c>
+      <c r="F271" t="s">
+        <v>304</v>
+      </c>
+      <c r="K271" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>806</v>
+      </c>
+      <c r="C272" t="s">
+        <v>304</v>
+      </c>
+      <c r="D272" t="s">
+        <v>806</v>
+      </c>
+      <c r="F272" t="s">
+        <v>304</v>
+      </c>
+      <c r="K272" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>810</v>
+      </c>
+      <c r="C273" t="s">
+        <v>304</v>
+      </c>
+      <c r="D273" t="s">
+        <v>810</v>
+      </c>
+      <c r="F273" t="s">
+        <v>304</v>
+      </c>
+      <c r="K273" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>811</v>
+      </c>
+      <c r="C274" t="s">
+        <v>304</v>
+      </c>
+      <c r="D274" t="s">
+        <v>811</v>
+      </c>
+      <c r="F274" t="s">
+        <v>304</v>
+      </c>
+      <c r="K274" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>812</v>
+      </c>
+      <c r="C275" t="s">
+        <v>304</v>
+      </c>
+      <c r="D275" t="s">
+        <v>812</v>
+      </c>
+      <c r="F275" t="s">
+        <v>304</v>
+      </c>
+      <c r="K275" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>813</v>
+      </c>
+      <c r="C276" t="s">
+        <v>304</v>
+      </c>
+      <c r="D276" t="s">
+        <v>813</v>
+      </c>
+      <c r="F276" t="s">
+        <v>304</v>
+      </c>
+      <c r="K276" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>824</v>
+      </c>
+      <c r="C277" t="s">
+        <v>304</v>
+      </c>
+      <c r="D277" t="s">
+        <v>824</v>
+      </c>
+      <c r="F277" t="s">
+        <v>304</v>
+      </c>
+      <c r="K277" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>825</v>
+      </c>
+      <c r="C278" t="s">
+        <v>304</v>
+      </c>
+      <c r="D278" t="s">
+        <v>825</v>
+      </c>
+      <c r="F278" t="s">
+        <v>304</v>
+      </c>
+      <c r="K278" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>826</v>
+      </c>
+      <c r="C279" t="s">
+        <v>304</v>
+      </c>
+      <c r="D279" t="s">
+        <v>826</v>
+      </c>
+      <c r="F279" t="s">
+        <v>304</v>
+      </c>
+      <c r="K279" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>827</v>
+      </c>
+      <c r="C280" t="s">
+        <v>304</v>
+      </c>
+      <c r="D280" t="s">
+        <v>827</v>
+      </c>
+      <c r="F280" t="s">
+        <v>304</v>
+      </c>
+      <c r="K280" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>828</v>
+      </c>
+      <c r="C281" t="s">
+        <v>304</v>
+      </c>
+      <c r="D281" t="s">
+        <v>828</v>
+      </c>
+      <c r="F281" t="s">
+        <v>304</v>
+      </c>
+      <c r="K281" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>829</v>
+      </c>
+      <c r="C282" t="s">
+        <v>304</v>
+      </c>
+      <c r="D282" t="s">
+        <v>829</v>
+      </c>
+      <c r="F282" t="s">
+        <v>304</v>
+      </c>
+      <c r="K282" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>830</v>
+      </c>
+      <c r="C283" t="s">
+        <v>304</v>
+      </c>
+      <c r="D283" t="s">
+        <v>830</v>
+      </c>
+      <c r="F283" t="s">
+        <v>304</v>
+      </c>
+      <c r="K283" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>831</v>
+      </c>
+      <c r="C284" t="s">
+        <v>304</v>
+      </c>
+      <c r="D284" t="s">
+        <v>831</v>
+      </c>
+      <c r="F284" t="s">
+        <v>304</v>
+      </c>
+      <c r="K284" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>832</v>
+      </c>
+      <c r="C285" t="s">
+        <v>304</v>
+      </c>
+      <c r="D285" t="s">
+        <v>832</v>
+      </c>
+      <c r="F285" t="s">
+        <v>304</v>
+      </c>
+      <c r="K285" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>833</v>
+      </c>
+      <c r="C286" t="s">
+        <v>304</v>
+      </c>
+      <c r="D286" t="s">
+        <v>833</v>
+      </c>
+      <c r="F286" t="s">
+        <v>304</v>
+      </c>
+      <c r="K286" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>834</v>
+      </c>
+      <c r="C287" t="s">
+        <v>304</v>
+      </c>
+      <c r="D287" t="s">
+        <v>834</v>
+      </c>
+      <c r="F287" t="s">
+        <v>304</v>
+      </c>
+      <c r="K287" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>835</v>
+      </c>
+      <c r="C288" t="s">
+        <v>304</v>
+      </c>
+      <c r="D288" t="s">
+        <v>835</v>
+      </c>
+      <c r="F288" t="s">
+        <v>304</v>
+      </c>
+      <c r="K288" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>836</v>
+      </c>
+      <c r="C289" t="s">
+        <v>304</v>
+      </c>
+      <c r="D289" t="s">
+        <v>836</v>
+      </c>
+      <c r="F289" t="s">
+        <v>304</v>
+      </c>
+      <c r="K289" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>837</v>
+      </c>
+      <c r="C290" t="s">
+        <v>304</v>
+      </c>
+      <c r="D290" t="s">
+        <v>837</v>
+      </c>
+      <c r="F290" t="s">
+        <v>304</v>
+      </c>
+      <c r="K290" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>838</v>
+      </c>
+      <c r="C291" t="s">
+        <v>304</v>
+      </c>
+      <c r="D291" t="s">
+        <v>838</v>
+      </c>
+      <c r="F291" t="s">
+        <v>304</v>
+      </c>
+      <c r="K291" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>839</v>
+      </c>
+      <c r="C292" t="s">
+        <v>304</v>
+      </c>
+      <c r="D292" t="s">
+        <v>839</v>
+      </c>
+      <c r="F292" t="s">
+        <v>304</v>
+      </c>
+      <c r="K292" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>840</v>
+      </c>
+      <c r="C293" t="s">
+        <v>304</v>
+      </c>
+      <c r="D293" t="s">
+        <v>840</v>
+      </c>
+      <c r="F293" t="s">
+        <v>304</v>
+      </c>
+      <c r="K293" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>841</v>
+      </c>
+      <c r="C294" t="s">
+        <v>304</v>
+      </c>
+      <c r="D294" t="s">
+        <v>841</v>
+      </c>
+      <c r="F294" t="s">
+        <v>304</v>
+      </c>
+      <c r="K294" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>842</v>
+      </c>
+      <c r="C295" t="s">
+        <v>304</v>
+      </c>
+      <c r="D295" t="s">
+        <v>842</v>
+      </c>
+      <c r="F295" t="s">
+        <v>304</v>
+      </c>
+      <c r="K295" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>843</v>
+      </c>
+      <c r="C296" t="s">
+        <v>304</v>
+      </c>
+      <c r="D296" t="s">
+        <v>843</v>
+      </c>
+      <c r="F296" t="s">
+        <v>304</v>
+      </c>
+      <c r="K296" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>844</v>
+      </c>
+      <c r="C297" t="s">
+        <v>304</v>
+      </c>
+      <c r="D297" t="s">
+        <v>844</v>
+      </c>
+      <c r="F297" t="s">
+        <v>304</v>
+      </c>
+      <c r="K297" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>845</v>
+      </c>
+      <c r="C298" t="s">
+        <v>304</v>
+      </c>
+      <c r="D298" t="s">
+        <v>845</v>
+      </c>
+      <c r="F298" t="s">
+        <v>304</v>
+      </c>
+      <c r="K298" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>846</v>
+      </c>
+      <c r="C299" t="s">
+        <v>304</v>
+      </c>
+      <c r="D299" t="s">
+        <v>846</v>
+      </c>
+      <c r="F299" t="s">
+        <v>304</v>
+      </c>
+      <c r="K299" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>847</v>
+      </c>
+      <c r="C300" t="s">
+        <v>304</v>
+      </c>
+      <c r="D300" t="s">
+        <v>847</v>
+      </c>
+      <c r="F300" t="s">
+        <v>304</v>
+      </c>
+      <c r="K300" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>202</v>
+      </c>
+      <c r="C301" t="s">
+        <v>304</v>
+      </c>
+      <c r="D301" t="s">
+        <v>202</v>
+      </c>
+      <c r="F301" t="s">
+        <v>304</v>
+      </c>
+      <c r="K301" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>857</v>
+      </c>
+      <c r="C302" t="s">
+        <v>304</v>
+      </c>
+      <c r="D302" t="s">
+        <v>857</v>
+      </c>
+      <c r="F302" t="s">
+        <v>304</v>
+      </c>
+      <c r="K302" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>858</v>
+      </c>
+      <c r="C303" t="s">
+        <v>304</v>
+      </c>
+      <c r="D303" t="s">
+        <v>858</v>
+      </c>
+      <c r="F303" t="s">
+        <v>304</v>
+      </c>
+      <c r="K303" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>861</v>
+      </c>
+      <c r="C304" t="s">
+        <v>304</v>
+      </c>
+      <c r="D304" t="s">
+        <v>861</v>
+      </c>
+      <c r="F304" t="s">
+        <v>304</v>
+      </c>
+      <c r="K304" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>862</v>
+      </c>
+      <c r="C305" t="s">
+        <v>304</v>
+      </c>
+      <c r="D305" t="s">
+        <v>862</v>
+      </c>
+      <c r="F305" t="s">
+        <v>304</v>
+      </c>
+      <c r="K305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>863</v>
+      </c>
+      <c r="C306" t="s">
+        <v>304</v>
+      </c>
+      <c r="D306" t="s">
+        <v>863</v>
+      </c>
+      <c r="F306" t="s">
+        <v>304</v>
+      </c>
+      <c r="K306" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>875</v>
+      </c>
+      <c r="C307" t="s">
+        <v>304</v>
+      </c>
+      <c r="D307" t="s">
+        <v>875</v>
+      </c>
+      <c r="F307" t="s">
+        <v>304</v>
+      </c>
+      <c r="K307" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>876</v>
+      </c>
+      <c r="C308" t="s">
+        <v>304</v>
+      </c>
+      <c r="D308" t="s">
+        <v>876</v>
+      </c>
+      <c r="F308" t="s">
+        <v>304</v>
+      </c>
+      <c r="K308" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>881</v>
+      </c>
+      <c r="C309" t="s">
+        <v>304</v>
+      </c>
+      <c r="D309" t="s">
+        <v>881</v>
+      </c>
+      <c r="F309" t="s">
+        <v>304</v>
+      </c>
+      <c r="K309" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>882</v>
+      </c>
+      <c r="C310" t="s">
+        <v>304</v>
+      </c>
+      <c r="D310" t="s">
+        <v>882</v>
+      </c>
+      <c r="F310" t="s">
+        <v>304</v>
+      </c>
+      <c r="K310" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>884</v>
+      </c>
+      <c r="C311" t="s">
+        <v>304</v>
+      </c>
+      <c r="D311" t="s">
+        <v>884</v>
+      </c>
+      <c r="F311" t="s">
+        <v>304</v>
+      </c>
+      <c r="K311" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>890</v>
+      </c>
+      <c r="C312" t="s">
+        <v>304</v>
+      </c>
+      <c r="D312" t="s">
+        <v>890</v>
+      </c>
+      <c r="F312" t="s">
+        <v>304</v>
+      </c>
+      <c r="K312" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>891</v>
+      </c>
+      <c r="C313" t="s">
+        <v>304</v>
+      </c>
+      <c r="D313" t="s">
+        <v>891</v>
+      </c>
+      <c r="F313" t="s">
+        <v>304</v>
+      </c>
+      <c r="K313" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>892</v>
+      </c>
+      <c r="C314" t="s">
+        <v>304</v>
+      </c>
+      <c r="D314" t="s">
+        <v>892</v>
+      </c>
+      <c r="F314" t="s">
+        <v>304</v>
+      </c>
+      <c r="K314" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>893</v>
+      </c>
+      <c r="C315" t="s">
+        <v>304</v>
+      </c>
+      <c r="D315" t="s">
+        <v>893</v>
+      </c>
+      <c r="F315" t="s">
+        <v>304</v>
+      </c>
+      <c r="K315" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>894</v>
+      </c>
+      <c r="C316" t="s">
+        <v>304</v>
+      </c>
+      <c r="D316" t="s">
+        <v>894</v>
+      </c>
+      <c r="F316" t="s">
+        <v>304</v>
+      </c>
+      <c r="K316" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>895</v>
+      </c>
+      <c r="C317" t="s">
+        <v>304</v>
+      </c>
+      <c r="D317" t="s">
+        <v>895</v>
+      </c>
+      <c r="F317" t="s">
+        <v>304</v>
+      </c>
+      <c r="K317" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>896</v>
+      </c>
+      <c r="C318" t="s">
+        <v>304</v>
+      </c>
+      <c r="D318" t="s">
+        <v>896</v>
+      </c>
+      <c r="F318" t="s">
+        <v>304</v>
+      </c>
+      <c r="K318" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>897</v>
+      </c>
+      <c r="C319" t="s">
+        <v>304</v>
+      </c>
+      <c r="D319" t="s">
+        <v>897</v>
+      </c>
+      <c r="F319" t="s">
+        <v>304</v>
+      </c>
+      <c r="K319" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>898</v>
+      </c>
+      <c r="C320" t="s">
+        <v>304</v>
+      </c>
+      <c r="D320" t="s">
+        <v>898</v>
+      </c>
+      <c r="F320" t="s">
+        <v>304</v>
+      </c>
+      <c r="K320" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>899</v>
+      </c>
+      <c r="C321" t="s">
+        <v>304</v>
+      </c>
+      <c r="D321" t="s">
+        <v>899</v>
+      </c>
+      <c r="F321" t="s">
+        <v>304</v>
+      </c>
+      <c r="K321" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>903</v>
+      </c>
+      <c r="C322" t="s">
+        <v>304</v>
+      </c>
+      <c r="D322" t="s">
+        <v>903</v>
+      </c>
+      <c r="F322" t="s">
+        <v>304</v>
+      </c>
+      <c r="K322" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>904</v>
+      </c>
+      <c r="C323" t="s">
+        <v>304</v>
+      </c>
+      <c r="D323" t="s">
+        <v>904</v>
+      </c>
+      <c r="F323" t="s">
+        <v>304</v>
+      </c>
+      <c r="K323" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>905</v>
+      </c>
+      <c r="C324" t="s">
+        <v>304</v>
+      </c>
+      <c r="D324" t="s">
+        <v>905</v>
+      </c>
+      <c r="F324" t="s">
+        <v>304</v>
+      </c>
+      <c r="K324" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>215</v>
+      </c>
+      <c r="C325" t="s">
+        <v>304</v>
+      </c>
+      <c r="D325" t="s">
+        <v>215</v>
+      </c>
+      <c r="F325" t="s">
+        <v>304</v>
+      </c>
+      <c r="K325" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>218</v>
+      </c>
+      <c r="C326" t="s">
+        <v>304</v>
+      </c>
+      <c r="D326" t="s">
+        <v>218</v>
+      </c>
+      <c r="F326" t="s">
+        <v>304</v>
+      </c>
+      <c r="K326" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>909</v>
+      </c>
+      <c r="C327" t="s">
+        <v>304</v>
+      </c>
+      <c r="D327" t="s">
+        <v>909</v>
+      </c>
+      <c r="F327" t="s">
+        <v>304</v>
+      </c>
+      <c r="K327" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>910</v>
+      </c>
+      <c r="C328" t="s">
+        <v>304</v>
+      </c>
+      <c r="D328" t="s">
+        <v>910</v>
+      </c>
+      <c r="F328" t="s">
+        <v>304</v>
+      </c>
+      <c r="K328" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>911</v>
+      </c>
+      <c r="C329" t="s">
+        <v>304</v>
+      </c>
+      <c r="D329" t="s">
+        <v>911</v>
+      </c>
+      <c r="F329" t="s">
+        <v>304</v>
+      </c>
+      <c r="K329" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>912</v>
+      </c>
+      <c r="C330" t="s">
+        <v>304</v>
+      </c>
+      <c r="D330" t="s">
+        <v>912</v>
+      </c>
+      <c r="F330" t="s">
+        <v>304</v>
+      </c>
+      <c r="K330" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>913</v>
+      </c>
+      <c r="C331" t="s">
+        <v>304</v>
+      </c>
+      <c r="D331" t="s">
+        <v>913</v>
+      </c>
+      <c r="F331" t="s">
+        <v>304</v>
+      </c>
+      <c r="K331" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>914</v>
+      </c>
+      <c r="C332" t="s">
+        <v>304</v>
+      </c>
+      <c r="D332" t="s">
+        <v>914</v>
+      </c>
+      <c r="F332" t="s">
+        <v>304</v>
+      </c>
+      <c r="K332" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>915</v>
+      </c>
+      <c r="C333" t="s">
+        <v>304</v>
+      </c>
+      <c r="D333" t="s">
+        <v>915</v>
+      </c>
+      <c r="F333" t="s">
+        <v>304</v>
+      </c>
+      <c r="K333" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>922</v>
+      </c>
+      <c r="C334" t="s">
+        <v>304</v>
+      </c>
+      <c r="D334" t="s">
+        <v>922</v>
+      </c>
+      <c r="F334" t="s">
+        <v>304</v>
+      </c>
+      <c r="K334" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>923</v>
+      </c>
+      <c r="C335" t="s">
+        <v>304</v>
+      </c>
+      <c r="D335" t="s">
+        <v>923</v>
+      </c>
+      <c r="F335" t="s">
+        <v>304</v>
+      </c>
+      <c r="K335" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>924</v>
+      </c>
+      <c r="C336" t="s">
+        <v>304</v>
+      </c>
+      <c r="D336" t="s">
+        <v>924</v>
+      </c>
+      <c r="F336" t="s">
+        <v>304</v>
+      </c>
+      <c r="K336" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>925</v>
+      </c>
+      <c r="C337" t="s">
+        <v>304</v>
+      </c>
+      <c r="D337" t="s">
+        <v>925</v>
+      </c>
+      <c r="F337" t="s">
+        <v>304</v>
+      </c>
+      <c r="K337" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>926</v>
+      </c>
+      <c r="C338" t="s">
+        <v>304</v>
+      </c>
+      <c r="D338" t="s">
+        <v>926</v>
+      </c>
+      <c r="F338" t="s">
+        <v>304</v>
+      </c>
+      <c r="K338" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>928</v>
+      </c>
+      <c r="C339" t="s">
+        <v>304</v>
+      </c>
+      <c r="D339" t="s">
+        <v>928</v>
+      </c>
+      <c r="F339" t="s">
+        <v>304</v>
+      </c>
+      <c r="K339" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>930</v>
+      </c>
+      <c r="C340" t="s">
+        <v>304</v>
+      </c>
+      <c r="D340" t="s">
+        <v>930</v>
+      </c>
+      <c r="F340" t="s">
+        <v>304</v>
+      </c>
+      <c r="K340" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>932</v>
+      </c>
+      <c r="C341" t="s">
+        <v>304</v>
+      </c>
+      <c r="D341" t="s">
+        <v>932</v>
+      </c>
+      <c r="F341" t="s">
+        <v>304</v>
+      </c>
+      <c r="K341" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>934</v>
+      </c>
+      <c r="C342" t="s">
+        <v>304</v>
+      </c>
+      <c r="D342" t="s">
+        <v>934</v>
+      </c>
+      <c r="F342" t="s">
+        <v>304</v>
+      </c>
+      <c r="K342" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>935</v>
+      </c>
+      <c r="C343" t="s">
+        <v>304</v>
+      </c>
+      <c r="D343" t="s">
+        <v>935</v>
+      </c>
+      <c r="F343" t="s">
+        <v>304</v>
+      </c>
+      <c r="K343" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>944</v>
+      </c>
+      <c r="C344" t="s">
+        <v>304</v>
+      </c>
+      <c r="D344" t="s">
+        <v>944</v>
+      </c>
+      <c r="F344" t="s">
+        <v>304</v>
+      </c>
+      <c r="K344" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>945</v>
+      </c>
+      <c r="C345" t="s">
+        <v>304</v>
+      </c>
+      <c r="D345" t="s">
+        <v>945</v>
+      </c>
+      <c r="F345" t="s">
+        <v>304</v>
+      </c>
+      <c r="K345" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>946</v>
+      </c>
+      <c r="C346" t="s">
+        <v>304</v>
+      </c>
+      <c r="D346" t="s">
+        <v>946</v>
+      </c>
+      <c r="F346" t="s">
+        <v>304</v>
+      </c>
+      <c r="K346" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>947</v>
+      </c>
+      <c r="C347" t="s">
+        <v>304</v>
+      </c>
+      <c r="D347" t="s">
+        <v>947</v>
+      </c>
+      <c r="F347" t="s">
+        <v>304</v>
+      </c>
+      <c r="K347" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>234</v>
+      </c>
+      <c r="C348" t="s">
+        <v>304</v>
+      </c>
+      <c r="D348" t="s">
+        <v>234</v>
+      </c>
+      <c r="F348" t="s">
+        <v>304</v>
+      </c>
+      <c r="K348" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>240</v>
+      </c>
+      <c r="C349" t="s">
+        <v>304</v>
+      </c>
+      <c r="D349" t="s">
+        <v>240</v>
+      </c>
+      <c r="F349" t="s">
+        <v>304</v>
+      </c>
+      <c r="K349" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>243</v>
+      </c>
+      <c r="C350" t="s">
+        <v>304</v>
+      </c>
+      <c r="D350" t="s">
+        <v>243</v>
+      </c>
+      <c r="F350" t="s">
+        <v>304</v>
+      </c>
+      <c r="K350" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>247</v>
+      </c>
+      <c r="C351" t="s">
+        <v>304</v>
+      </c>
+      <c r="D351" t="s">
+        <v>247</v>
+      </c>
+      <c r="F351" t="s">
+        <v>304</v>
+      </c>
+      <c r="K351" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>280</v>
+      </c>
+      <c r="C352" t="s">
+        <v>304</v>
+      </c>
+      <c r="D352" t="s">
+        <v>280</v>
+      </c>
+      <c r="F352" t="s">
+        <v>304</v>
+      </c>
+      <c r="K352" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>281</v>
+      </c>
+      <c r="C353" t="s">
+        <v>304</v>
+      </c>
+      <c r="D353" t="s">
+        <v>281</v>
+      </c>
+      <c r="F353" t="s">
+        <v>304</v>
+      </c>
+      <c r="K353" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>282</v>
+      </c>
+      <c r="C354" t="s">
+        <v>304</v>
+      </c>
+      <c r="D354" t="s">
+        <v>282</v>
+      </c>
+      <c r="F354" t="s">
+        <v>304</v>
+      </c>
+      <c r="K354" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>283</v>
+      </c>
+      <c r="C355" t="s">
+        <v>304</v>
+      </c>
+      <c r="D355" t="s">
+        <v>283</v>
+      </c>
+      <c r="F355" t="s">
+        <v>304</v>
+      </c>
+      <c r="K355" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>284</v>
+      </c>
+      <c r="C356" t="s">
+        <v>304</v>
+      </c>
+      <c r="D356" t="s">
+        <v>284</v>
+      </c>
+      <c r="F356" t="s">
+        <v>304</v>
+      </c>
+      <c r="K356" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>291</v>
+      </c>
+      <c r="C357" t="s">
+        <v>304</v>
+      </c>
+      <c r="D357" t="s">
+        <v>291</v>
+      </c>
+      <c r="F357" t="s">
+        <v>304</v>
+      </c>
+      <c r="K357" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>294</v>
+      </c>
+      <c r="C358" t="s">
+        <v>304</v>
+      </c>
+      <c r="D358" t="s">
+        <v>294</v>
+      </c>
+      <c r="F358" t="s">
+        <v>304</v>
+      </c>
+      <c r="K358" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>296</v>
+      </c>
+      <c r="C359" t="s">
+        <v>304</v>
+      </c>
+      <c r="D359" t="s">
+        <v>296</v>
+      </c>
+      <c r="F359" t="s">
+        <v>304</v>
+      </c>
+      <c r="K359" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>297</v>
+      </c>
+      <c r="C360" t="s">
+        <v>304</v>
+      </c>
+      <c r="D360" t="s">
+        <v>297</v>
+      </c>
+      <c r="F360" t="s">
+        <v>304</v>
+      </c>
+      <c r="K360" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C361" t="s">
+        <v>304</v>
+      </c>
+      <c r="F361" t="s">
+        <v>304</v>
+      </c>
+      <c r="K361" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C362" t="s">
+        <v>304</v>
+      </c>
+      <c r="F362" t="s">
+        <v>304</v>
+      </c>
+      <c r="K362" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C363" t="s">
+        <v>304</v>
+      </c>
+      <c r="F363" t="s">
+        <v>304</v>
+      </c>
+      <c r="K363" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C364" t="s">
+        <v>304</v>
+      </c>
+      <c r="F364" t="s">
+        <v>304</v>
+      </c>
+      <c r="K364" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C365" t="s">
+        <v>304</v>
+      </c>
+      <c r="F365" t="s">
+        <v>304</v>
+      </c>
+      <c r="K365" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C366" t="s">
+        <v>304</v>
+      </c>
+      <c r="F366" t="s">
+        <v>304</v>
+      </c>
+      <c r="K366" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C367" t="s">
+        <v>304</v>
+      </c>
+      <c r="F367" t="s">
+        <v>304</v>
+      </c>
+      <c r="K367" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C368" t="s">
+        <v>304</v>
+      </c>
+      <c r="F368" t="s">
+        <v>304</v>
+      </c>
+      <c r="K368" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="369" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C369" t="s">
+        <v>304</v>
+      </c>
+      <c r="F369" t="s">
+        <v>304</v>
+      </c>
+      <c r="K369" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="370" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C370" t="s">
+        <v>304</v>
+      </c>
+      <c r="F370" t="s">
+        <v>304</v>
+      </c>
+      <c r="K370" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="371" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C371" t="s">
+        <v>304</v>
+      </c>
+      <c r="F371" t="s">
+        <v>304</v>
+      </c>
+      <c r="K371" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="372" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C372" t="s">
+        <v>304</v>
+      </c>
+      <c r="F372" t="s">
+        <v>304</v>
+      </c>
+      <c r="K372" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="373" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C373" t="s">
+        <v>304</v>
+      </c>
+      <c r="F373" t="s">
+        <v>304</v>
+      </c>
+      <c r="K373" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="374" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C374" t="s">
+        <v>304</v>
+      </c>
+      <c r="F374" t="s">
+        <v>304</v>
+      </c>
+      <c r="K374" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>